--- a/Example/Genotype_specification_file.xlsx
+++ b/Example/Genotype_specification_file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umhealth-my.sharepoint.com/personal/shijusis_med_umich_edu/Documents/Desktop/SleepMat2024.1/Example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umhealth-my.sharepoint.com/personal/shijusis_med_umich_edu/Documents/Desktop/Shiju_sisobhan/GitHub_folder/SleepMat2024.1/Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{126278CB-0BBE-47EF-A02B-F284466E9DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF04B62-9587-4622-A1C3-84B7BD097407}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{126278CB-0BBE-47EF-A02B-F284466E9DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66FAA5F0-DFA9-4AF3-AF66-DD70FFCEC466}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFA120AC-F4A9-47D9-820F-7325B76A06B8}"/>
   </bookViews>
@@ -155,28 +155,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,393 +489,378 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>17</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="2">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
         <v>26</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
         <v>27</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>27</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>29</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
+      <c r="F9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>30</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
+      <c r="F10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>28</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>32</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>18</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7"/>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>19</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>27</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7"/>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
